--- a/DDF/Phase2.1/Common_Data/CommonData.xlsx
+++ b/DDF/Phase2.1/Common_Data/CommonData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon\Bimbo Mobile\DDF\Phase2\Common_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TYSS\PROJECT FILES\Bimbo Mobile-TY 25-02-2022\Bimbo Mobile-TY\DDF\Phase2.1\Common_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="500"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CommonData" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="249">
   <si>
     <t>OdometerReading</t>
   </si>
@@ -747,6 +747,30 @@
   </si>
   <si>
     <t>IVA%</t>
+  </si>
+  <si>
+    <t>02_BIM_SKU_EP_SD</t>
+  </si>
+  <si>
+    <t>03_BIM_SKU_EP_SD</t>
+  </si>
+  <si>
+    <t>04_BIM_SKU_EP</t>
+  </si>
+  <si>
+    <t>05_BIM_SKU_EP</t>
+  </si>
+  <si>
+    <t>02_BCL_SKU_EP</t>
+  </si>
+  <si>
+    <t>03_BCL_SKU_EP</t>
+  </si>
+  <si>
+    <t>04_BCL_SKU_EP</t>
+  </si>
+  <si>
+    <t>05_BCL_SKU_EP</t>
   </si>
 </sst>
 </file>
@@ -809,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -852,6 +876,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1248,7 @@
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1307,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>19</v>
       </c>
@@ -1338,8 +1363,11 @@
       <c r="S2" s="17">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="11" t="s">
         <v>8</v>
@@ -1388,7 +1416,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="11" t="s">
         <v>187</v>
@@ -1437,7 +1465,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="11" t="s">
         <v>9</v>
@@ -1483,7 +1511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="11" t="s">
         <v>114</v>
@@ -1518,7 +1546,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="11" t="s">
         <v>115</v>
@@ -1546,7 +1574,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="11" t="s">
         <v>59</v>
@@ -1574,7 +1602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="11" t="s">
         <v>117</v>
@@ -1602,7 +1630,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="11" t="s">
         <v>228</v>
@@ -1630,7 +1658,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>128</v>
       </c>
@@ -1653,7 +1681,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>229</v>
       </c>
@@ -1676,7 +1704,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>230</v>
       </c>
@@ -1696,7 +1724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>185</v>
       </c>
@@ -1713,7 +1741,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>186</v>
       </c>
@@ -1730,7 +1758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>190</v>
       </c>
@@ -2367,6 +2395,46 @@
       </c>
       <c r="F70" s="15" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="9" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
